--- a/project7/new_store_assignment.xlsx
+++ b/project7/new_store_assignment.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
